--- a/var_info/indv_panel_var_info/LIKS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/LIKS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0AD4D1-7B9F-A942-BA64-7B11C26E229C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F35F6EC-9E3F-6E4C-9C6C-4CE97B82D05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$Q$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="123">
   <si>
     <t>pro</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -887,10 +890,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1250,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1264,7 @@
     <col min="5" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1310,10 +1311,13 @@
         <v>71</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1344,11 +1348,14 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1379,11 +1386,14 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1414,11 +1424,14 @@
       <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1449,11 +1462,14 @@
       <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1490,8 +1506,11 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1528,8 +1547,11 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1566,8 +1588,11 @@
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1604,8 +1629,11 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1642,8 +1670,11 @@
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1680,8 +1711,11 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1712,11 +1746,14 @@
       <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1747,11 +1784,14 @@
       <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1782,11 +1822,14 @@
       <c r="J14" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1817,11 +1860,14 @@
       <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1858,9 +1904,11 @@
       <c r="L16">
         <v>30</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1891,14 +1939,17 @@
       <c r="J17" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1929,14 +1980,17 @@
       <c r="J18" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1967,14 +2021,17 @@
       <c r="J19" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>5</v>
       </c>
       <c r="L19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2005,14 +2062,17 @@
       <c r="J20" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2043,17 +2103,20 @@
       <c r="J21" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>5</v>
       </c>
       <c r="L21">
         <v>30</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2084,11 +2147,14 @@
       <c r="J22" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2119,11 +2185,14 @@
       <c r="J23" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2154,11 +2223,14 @@
       <c r="J24" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2189,11 +2261,14 @@
       <c r="J25" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2224,11 +2299,14 @@
       <c r="J26" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2259,11 +2337,14 @@
       <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2294,11 +2375,14 @@
       <c r="J28" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2329,11 +2413,14 @@
       <c r="J29" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2364,11 +2451,14 @@
       <c r="J30" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2399,11 +2489,14 @@
       <c r="J31" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2434,11 +2527,14 @@
       <c r="J32" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2469,11 +2565,14 @@
       <c r="J33" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2507,9 +2606,11 @@
       <c r="K34">
         <v>11</v>
       </c>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2543,9 +2644,11 @@
       <c r="K35">
         <v>11</v>
       </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2579,9 +2682,11 @@
       <c r="K36">
         <v>11</v>
       </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2615,9 +2720,11 @@
       <c r="K37">
         <v>11</v>
       </c>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2651,9 +2758,11 @@
       <c r="K38">
         <v>11</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2687,8 +2796,11 @@
       <c r="K39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2719,11 +2831,14 @@
       <c r="J40" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2754,11 +2869,14 @@
       <c r="J41" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2789,11 +2907,14 @@
       <c r="J42" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2824,11 +2945,14 @@
       <c r="J43" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2859,11 +2983,14 @@
       <c r="J44" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2900,8 +3027,11 @@
       <c r="O45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2938,8 +3068,11 @@
       <c r="O46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2976,8 +3109,11 @@
       <c r="O47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3014,8 +3150,11 @@
       <c r="O48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3052,71 +3191,24 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="3"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E54" s="3"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E60" s="3"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E61" s="3"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E62" s="3"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="N65" s="2"/>
-    </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3125,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,7 +3229,7 @@
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -3184,10 +3276,13 @@
         <v>71</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3206,11 +3301,11 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3229,11 +3324,11 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3252,11 +3347,11 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3275,11 +3370,11 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3298,11 +3393,11 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3321,11 +3416,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3344,11 +3439,11 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3367,11 +3462,11 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3390,11 +3485,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3413,11 +3508,11 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3436,11 +3531,11 @@
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3459,11 +3554,11 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3482,21 +3577,21 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
@@ -3505,21 +3600,21 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2013</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
@@ -3528,11 +3623,11 @@
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3551,11 +3646,11 @@
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3574,21 +3669,21 @@
       <c r="F18" t="s">
         <v>24</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>2013</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
@@ -3597,21 +3692,21 @@
       <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2013</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="E20" t="s">
@@ -3620,11 +3715,11 @@
       <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3643,11 +3738,11 @@
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3666,11 +3761,11 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3689,21 +3784,21 @@
       <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>2016</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
       <c r="E24" t="s">
@@ -3712,21 +3807,21 @@
       <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2016</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25" t="s">
@@ -3735,11 +3830,11 @@
       <c r="F25" t="s">
         <v>23</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3758,11 +3853,11 @@
       <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3781,21 +3876,21 @@
       <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2016</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
@@ -3804,21 +3899,21 @@
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>2016</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="E29" t="s">
@@ -3827,11 +3922,11 @@
       <c r="F29" t="s">
         <v>24</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3850,11 +3945,11 @@
       <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3873,11 +3968,11 @@
       <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -3887,7 +3982,7 @@
       <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>113</v>
       </c>
       <c r="E32" t="s">
@@ -3896,11 +3991,11 @@
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3910,7 +4005,7 @@
       <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
       <c r="E33" t="s">
@@ -3919,11 +4014,11 @@
       <c r="F33" t="s">
         <v>23</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3942,11 +4037,11 @@
       <c r="F34" t="s">
         <v>24</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3965,11 +4060,11 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +4074,7 @@
       <c r="C36" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>113</v>
       </c>
       <c r="E36" t="s">
@@ -3988,11 +4083,11 @@
       <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -4002,7 +4097,7 @@
       <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>110</v>
       </c>
       <c r="E37" t="s">
@@ -4011,13 +4106,13 @@
       <c r="F37" t="s">
         <v>24</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{2A652AA9-C02E-0C4A-8937-F2BB1091248A}">
-    <sortState ref="A2:P29">
+  <autoFilter ref="A1:Q1" xr:uid="{2A652AA9-C02E-0C4A-8937-F2BB1091248A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
       <sortCondition ref="B1:B29"/>
     </sortState>
   </autoFilter>
@@ -4027,10 +4122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4039,7 +4134,7 @@
     <col min="4" max="4" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -4086,10 +4181,13 @@
         <v>71</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4108,11 +4206,11 @@
       <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4131,11 +4229,11 @@
       <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4154,11 +4252,11 @@
       <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4177,11 +4275,11 @@
       <c r="F5">
         <v>2010</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4200,11 +4298,11 @@
       <c r="F6">
         <v>2011</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4223,11 +4321,11 @@
       <c r="F7">
         <v>2012</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4246,11 +4344,11 @@
       <c r="F8">
         <v>2013</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4269,11 +4367,11 @@
       <c r="F9">
         <v>2016</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4300,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4311,7 +4409,7 @@
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -4358,10 +4456,13 @@
         <v>71</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4380,13 +4481,13 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4395,15 +4496,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -4450,6 +4551,9 @@
         <v>71</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4462,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511B157-95F8-A345-BBCC-E1C8B4F5B66B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
